--- a/src/main/java/org/example/out_data.xlsx
+++ b/src/main/java/org/example/out_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibattula\IdeaProjects\TyageshProject\src\main\java\org\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFB0846-89FA-4FD2-80BF-4258FCD4D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BC45DB-983E-46E1-B271-628C3EF80D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15669" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16008" uniqueCount="2314">
   <si>
     <t>Record Type</t>
   </si>
@@ -7583,6 +7583,234 @@
   </si>
   <si>
     <t>Flag</t>
+  </si>
+  <si>
+    <t>Plan Eff Date</t>
+  </si>
+  <si>
+    <t>Plan Term Date</t>
+  </si>
+  <si>
+    <t>Plan Name</t>
+  </si>
+  <si>
+    <t>Plan Eligibility Override</t>
+  </si>
+  <si>
+    <t>Plan Verify Member</t>
+  </si>
+  <si>
+    <t>Plan Customer Location</t>
+  </si>
+  <si>
+    <t>Plan Verify RX Network</t>
+  </si>
+  <si>
+    <t>Plan Verify Care Facility</t>
+  </si>
+  <si>
+    <t>Plan Verify MD Network</t>
+  </si>
+  <si>
+    <t>Plan DEA Validation</t>
+  </si>
+  <si>
+    <t>Plan Verify MD Specialty</t>
+  </si>
+  <si>
+    <t>Plan Verify Compound</t>
+  </si>
+  <si>
+    <t>Plan Verify NDC List</t>
+  </si>
+  <si>
+    <t>Plan Verify GPI List</t>
+  </si>
+  <si>
+    <t>Plan Verify Maint Drug</t>
+  </si>
+  <si>
+    <t>Plan Verify DEA Code</t>
+  </si>
+  <si>
+    <t>Days Supply/Qty Disp Lmts</t>
+  </si>
+  <si>
+    <t>Plan Verify Refill Limits</t>
+  </si>
+  <si>
+    <t>Plan Verify Legend OTC</t>
+  </si>
+  <si>
+    <t>Plan Verify 3rd Pty Excp</t>
+  </si>
+  <si>
+    <t>Plan Verify Route of Admn</t>
+  </si>
+  <si>
+    <t>Plan Verify Dosage Form</t>
+  </si>
+  <si>
+    <t>Plan DESI Indicator</t>
+  </si>
+  <si>
+    <t>Plan Verify Packaging</t>
+  </si>
+  <si>
+    <t>Plan Verify FDA Ther Equi</t>
+  </si>
+  <si>
+    <t>Plan Verify Therapy</t>
+  </si>
+  <si>
+    <t>Plan Verify Brnd/Gen Subs</t>
+  </si>
+  <si>
+    <t>Plan Level of Service</t>
+  </si>
+  <si>
+    <t>Plan Preferred Formulary</t>
+  </si>
+  <si>
+    <t>Plan Verify Restrictions</t>
+  </si>
+  <si>
+    <t>Plan Verify Pricing</t>
+  </si>
+  <si>
+    <t>Deductible/Cap Limits</t>
+  </si>
+  <si>
+    <t>Plan Default Drug Status</t>
+  </si>
+  <si>
+    <t>PET Plan Type</t>
+  </si>
+  <si>
+    <t>Plan Qualifier</t>
+  </si>
+  <si>
+    <t>DUG Table Name</t>
+  </si>
+  <si>
+    <t>Plan Pref Prod Schedule</t>
+  </si>
+  <si>
+    <t>Plan Audit Flag</t>
+  </si>
+  <si>
+    <t>Plan Patient Pay Qual</t>
+  </si>
+  <si>
+    <t>Plan Verify Specialty Pgm</t>
+  </si>
+  <si>
+    <t>Plan Verify FormMgmtSrvc</t>
+  </si>
+  <si>
+    <t>Plan Discount Benefit</t>
+  </si>
+  <si>
+    <t>Plan Real-Time PA</t>
+  </si>
+  <si>
+    <t>Plan External Program</t>
+  </si>
+  <si>
+    <t>PE1 PQE Messaging Type</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PE1 Plan Verify ServiceCd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPRESS TEST             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEBA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evu       </t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>911202.0</t>
+  </si>
+  <si>
+    <t>1391231.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONNA'S PLAN DONNA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMCC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONNA     </t>
+  </si>
+  <si>
+    <t>930101.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX$ RESTRICTIONS PLAN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLAR      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX$PLAN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVOY TEST PLAN          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKAR      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVOY     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARY LOU'S TEST PLAN     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RKHA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALOU     </t>
+  </si>
+  <si>
+    <t>AGAU123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYNE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYNES TEST PLAN         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYNE     </t>
+  </si>
+  <si>
+    <t>ABCDE12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST ADJUDICATION TEST   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIN      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST      </t>
   </si>
 </sst>
 </file>
@@ -7652,7 +7880,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7692,6 +7920,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7788,7 +8022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7970,6 +8204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8533,10 +8770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854DD289-DBBE-4BA2-B108-457D91ED67DC}">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8554,7 +8791,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>2237</v>
       </c>
       <c r="C1" s="13"/>
@@ -9014,154 +9251,157 @@
       </c>
     </row>
     <row r="4" spans="1:53" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="D4" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="Y4" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>595</v>
-      </c>
-      <c r="AC4" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="AD4" s="29" t="s">
-        <v>597</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>598</v>
-      </c>
-      <c r="AF4" s="29" t="s">
-        <v>599</v>
-      </c>
-      <c r="AG4" s="29" t="s">
-        <v>600</v>
-      </c>
-      <c r="AH4" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="AI4" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ4" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="AK4" s="29" t="s">
-        <v>604</v>
-      </c>
-      <c r="AL4" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM4" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="AN4" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="AO4" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="AP4" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="AR4" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="AS4" s="29" t="s">
-        <v>612</v>
-      </c>
-      <c r="AT4" s="29" t="s">
-        <v>613</v>
-      </c>
-      <c r="AU4" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="AV4" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="AW4" s="25" t="s">
-        <v>616</v>
-      </c>
-      <c r="AX4" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="AY4" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="AZ4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA4" s="25" t="s">
+      <c r="B4" s="8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>2242</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>2244</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>2245</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>2246</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>2247</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>2248</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>2249</v>
+      </c>
+      <c r="Q4" s="69" t="s">
+        <v>2250</v>
+      </c>
+      <c r="R4" s="69" t="s">
+        <v>2251</v>
+      </c>
+      <c r="S4" s="69" t="s">
+        <v>2252</v>
+      </c>
+      <c r="T4" s="69" t="s">
+        <v>2253</v>
+      </c>
+      <c r="U4" s="69" t="s">
+        <v>2254</v>
+      </c>
+      <c r="V4" s="69" t="s">
+        <v>2255</v>
+      </c>
+      <c r="W4" s="69" t="s">
+        <v>2256</v>
+      </c>
+      <c r="X4" s="69" t="s">
+        <v>2257</v>
+      </c>
+      <c r="Y4" s="69" t="s">
+        <v>2258</v>
+      </c>
+      <c r="Z4" s="69" t="s">
+        <v>2259</v>
+      </c>
+      <c r="AA4" s="69" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AB4" s="69" t="s">
+        <v>2261</v>
+      </c>
+      <c r="AC4" s="69" t="s">
+        <v>2262</v>
+      </c>
+      <c r="AD4" s="69" t="s">
+        <v>2263</v>
+      </c>
+      <c r="AE4" s="69" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AF4" s="69" t="s">
+        <v>2265</v>
+      </c>
+      <c r="AG4" s="69" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AH4" s="69" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AI4" s="69" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AJ4" s="69" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AK4" s="69" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AL4" s="69" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AM4" s="69" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AN4" s="69" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AO4" s="69" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AP4" s="69" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AQ4" s="69" t="s">
+        <v>2276</v>
+      </c>
+      <c r="AR4" s="69" t="s">
+        <v>2277</v>
+      </c>
+      <c r="AS4" s="69" t="s">
+        <v>2278</v>
+      </c>
+      <c r="AT4" s="69" t="s">
+        <v>2279</v>
+      </c>
+      <c r="AU4" s="69" t="s">
+        <v>2280</v>
+      </c>
+      <c r="AV4" s="69" t="s">
+        <v>2281</v>
+      </c>
+      <c r="AW4" s="69" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AX4" s="69" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AY4" s="69" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AZ4" s="69" t="s">
+        <v>2284</v>
+      </c>
+      <c r="BA4" s="30" t="s">
         <v>619</v>
       </c>
     </row>
@@ -9176,149 +9416,154 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>621</v>
+        <v>2289</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>622</v>
+        <v>2291</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20391231</v>
+        <v>2292</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2287</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>625</v>
+        <v>12</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>626</v>
+        <v>2286</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>568</v>
+        <v>2285</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>628</v>
+        <v>9</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>629</v>
+        <v>2285</v>
       </c>
       <c r="AX5" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AZ5" s="3"/>
+      <c r="AY5" t="s" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>2285</v>
+      </c>
       <c r="BA5" s="3" t="s">
-        <v>9</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
@@ -9482,152 +9727,154 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>621</v>
+        <v>2295</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>631</v>
+        <v>2296</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>397</v>
+        <v>2292</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>632</v>
+        <v>2293</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>624</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>125</v>
+        <v>628</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>125</v>
+        <v>2286</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>125</v>
+        <v>2285</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>125</v>
+        <v>2285</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>125</v>
+        <v>2285</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>125</v>
+        <v>2285</v>
       </c>
       <c r="AX7" s="3" t="s">
         <v>125</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ7" s="3"/>
+        <v>2290</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>2285</v>
+      </c>
       <c r="BA7" s="3" t="s">
-        <v>9</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="29" x14ac:dyDescent="0.35">
@@ -9638,19 +9885,151 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>621</v>
+        <v>2299</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>631</v>
+        <v>2296</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20391231</v>
+        <v>2292</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H8" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>2285</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>9</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
@@ -9661,88 +10040,88 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>621</v>
+        <v>2302</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>622</v>
+        <v>2296</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20391231</v>
+        <v>2292</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2300</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>624</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>9</v>
@@ -9751,59 +10130,64 @@
         <v>9</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>625</v>
+        <v>12</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>626</v>
+        <v>2286</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>568</v>
+        <v>2285</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>628</v>
+        <v>12</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>629</v>
+        <v>2285</v>
       </c>
       <c r="AX9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AZ9" s="3"/>
+      <c r="AY9" t="s" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>2285</v>
+      </c>
       <c r="BA9" s="3" t="s">
-        <v>9</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
@@ -9967,147 +10351,154 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>621</v>
+        <v>2305</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>636</v>
+        <v>2296</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>2292</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2303</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>625</v>
+        <v>12</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>626</v>
+        <v>2286</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>568</v>
+        <v>2285</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>628</v>
+        <v>12</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>629</v>
+        <v>2285</v>
       </c>
       <c r="AX11" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AZ11" s="3"/>
+      <c r="AY11" t="s" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>2285</v>
+      </c>
       <c r="BA11" s="3" t="s">
-        <v>9</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.35">
@@ -10118,19 +10509,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>621</v>
+        <v>2309</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20391231</v>
+        <v>2296</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2292</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>623</v>
+        <v>2308</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>624</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -10142,7 +10533,7 @@
         <v>9</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>9</v>
@@ -10214,53 +10605,58 @@
         <v>9</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="AK12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>625</v>
+        <v>12</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>626</v>
+        <v>2307</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>568</v>
+        <v>2306</v>
       </c>
       <c r="AP12" s="11" t="s">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="AQ12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>628</v>
+        <v>12</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>9</v>
+        <v>2310</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>629</v>
+        <v>2285</v>
       </c>
       <c r="AX12" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AZ12" s="3"/>
+      <c r="AY12" t="s" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>2285</v>
+      </c>
       <c r="BA12" s="3" t="s">
-        <v>9</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.35">
@@ -10271,169 +10667,154 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>621</v>
+        <v>2313</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F13" s="3">
-        <v>20391231</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20391231</v>
+        <v>2296</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2311</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>625</v>
+        <v>12</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>626</v>
+        <v>2286</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>568</v>
+        <v>2285</v>
       </c>
       <c r="AP13" s="11" t="s">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>628</v>
+        <v>12</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>9</v>
+        <v>2285</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>629</v>
+        <v>2285</v>
       </c>
       <c r="AX13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AZ13" s="3"/>
+      <c r="AY13" t="s" s="11">
+        <v>2290</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>2285</v>
+      </c>
       <c r="BA13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C15" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C16" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>2312</v>
       </c>
     </row>
   </sheetData>
@@ -10442,7 +10823,7 @@
       <formula>LEN($A1) &gt; 25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:BA4">
+  <conditionalFormatting sqref="BA4">
     <cfRule type="expression" dxfId="54" priority="1">
       <formula>LEN($A4) &gt; 25</formula>
     </cfRule>
@@ -15077,7 +15458,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15095,9 +15476,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
-        <v>2237</v>
-      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="33" t="s">
         <v>491</v>
